--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Grem1-Kdr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Grem1-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Grem1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.24540226623929</v>
+        <v>1.262991</v>
       </c>
       <c r="H2">
-        <v>1.24540226623929</v>
+        <v>3.788973</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9683741421559858</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9683741421559857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N2">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q2">
-        <v>169.320890904307</v>
+        <v>179.544695154003</v>
       </c>
       <c r="R2">
-        <v>169.320890904307</v>
+        <v>1615.902256386027</v>
       </c>
       <c r="S2">
-        <v>0.9546807239754123</v>
+        <v>0.9200310170606772</v>
       </c>
       <c r="T2">
-        <v>0.9546807239754123</v>
+        <v>0.920031017060677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.24540226623929</v>
+        <v>1.262991</v>
       </c>
       <c r="H3">
-        <v>1.24540226623929</v>
+        <v>3.788973</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9683741421559858</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9683741421559857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N3">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q3">
-        <v>0.2183846644208075</v>
+        <v>0.287623887409</v>
       </c>
       <c r="R3">
-        <v>0.2183846644208075</v>
+        <v>2.588614986681</v>
       </c>
       <c r="S3">
-        <v>0.001231316634473725</v>
+        <v>0.001473855283983021</v>
       </c>
       <c r="T3">
-        <v>0.001231316634473725</v>
+        <v>0.001473855283983021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.24540226623929</v>
+        <v>1.262991</v>
       </c>
       <c r="H4">
-        <v>1.24540226623929</v>
+        <v>3.788973</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9683741421559858</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9683741421559857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N4">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q4">
-        <v>5.075244807889947</v>
+        <v>5.779974746238</v>
       </c>
       <c r="R4">
-        <v>5.075244807889947</v>
+        <v>52.019772716142</v>
       </c>
       <c r="S4">
-        <v>0.02861571517649969</v>
+        <v>0.02961800703610383</v>
       </c>
       <c r="T4">
-        <v>0.02861571517649969</v>
+        <v>0.02961800703610382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.24540226623929</v>
+        <v>1.262991</v>
       </c>
       <c r="H5">
-        <v>1.24540226623929</v>
+        <v>3.788973</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9683741421559858</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9683741421559857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N5">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q5">
-        <v>2.620840373673359</v>
+        <v>3.198842560235</v>
       </c>
       <c r="R5">
-        <v>2.620840373673359</v>
+        <v>28.789583042115</v>
       </c>
       <c r="S5">
-        <v>0.0147770648500576</v>
+        <v>0.01639165318466037</v>
       </c>
       <c r="T5">
-        <v>0.0147770648500576</v>
+        <v>0.01639165318466036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.24540226623929</v>
+        <v>1.262991</v>
       </c>
       <c r="H6">
-        <v>1.24540226623929</v>
+        <v>3.788973</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9683741421559858</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9683741421559857</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N6">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O6">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P6">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q6">
-        <v>0.1232960781752692</v>
+        <v>0.167753411599</v>
       </c>
       <c r="R6">
-        <v>0.1232960781752692</v>
+        <v>1.509780704391</v>
       </c>
       <c r="S6">
-        <v>0.0006951793635566143</v>
+        <v>0.0008596095905615254</v>
       </c>
       <c r="T6">
-        <v>0.0006951793635566143</v>
+        <v>0.0008596095905615249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.123743</v>
+      </c>
+      <c r="I7">
+        <v>0.03162585784401424</v>
+      </c>
+      <c r="J7">
+        <v>0.03162585784401423</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>142.158333</v>
+      </c>
+      <c r="N7">
+        <v>426.474999</v>
+      </c>
+      <c r="O7">
+        <v>0.9500780504241082</v>
+      </c>
+      <c r="P7">
+        <v>0.9500780504241081</v>
+      </c>
+      <c r="Q7">
+        <v>5.863699533473</v>
+      </c>
+      <c r="R7">
+        <v>52.77329580125701</v>
+      </c>
+      <c r="S7">
+        <v>0.03004703336343104</v>
+      </c>
+      <c r="T7">
+        <v>0.03004703336343103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.123743</v>
+      </c>
+      <c r="I8">
+        <v>0.03162585784401424</v>
+      </c>
+      <c r="J8">
+        <v>0.03162585784401423</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2277323333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.6831970000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="P8">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="Q8">
+        <v>0.009393427374555556</v>
+      </c>
+      <c r="R8">
+        <v>0.08454084637100001</v>
+      </c>
+      <c r="S8">
+        <v>4.8134223813659E-05</v>
+      </c>
+      <c r="T8">
+        <v>4.813422381365898E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.123743</v>
+      </c>
+      <c r="I9">
+        <v>0.03162585784401424</v>
+      </c>
+      <c r="J9">
+        <v>0.03162585784401423</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.576418</v>
+      </c>
+      <c r="N9">
+        <v>13.729254</v>
+      </c>
+      <c r="O9">
+        <v>0.03058529317001626</v>
+      </c>
+      <c r="P9">
+        <v>0.03058529317001625</v>
+      </c>
+      <c r="Q9">
+        <v>0.1887665641913334</v>
+      </c>
+      <c r="R9">
+        <v>1.698899077722</v>
+      </c>
+      <c r="S9">
+        <v>0.0009672861339124338</v>
+      </c>
+      <c r="T9">
+        <v>0.0009672861339124334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.123743</v>
+      </c>
+      <c r="I10">
+        <v>0.03162585784401424</v>
+      </c>
+      <c r="J10">
+        <v>0.03162585784401423</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.532751666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.598255</v>
+      </c>
+      <c r="O10">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="P10">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="Q10">
+        <v>0.1044700964961111</v>
+      </c>
+      <c r="R10">
+        <v>0.940230868465</v>
+      </c>
+      <c r="S10">
+        <v>0.0005353303758114475</v>
+      </c>
+      <c r="T10">
+        <v>0.0005353303758114473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04124766666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.123743</v>
+      </c>
+      <c r="I11">
+        <v>0.03162585784401424</v>
+      </c>
+      <c r="J11">
+        <v>0.03162585784401423</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1328223333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.398467</v>
+      </c>
+      <c r="O11">
+        <v>0.0008876833376071904</v>
+      </c>
+      <c r="P11">
+        <v>0.00088768333760719</v>
+      </c>
+      <c r="Q11">
+        <v>0.005478611331222223</v>
+      </c>
+      <c r="R11">
+        <v>0.04930750198100001</v>
+      </c>
+      <c r="S11">
+        <v>2.80737470456651E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.807374704566508E-05</v>
       </c>
     </row>
   </sheetData>
